--- a/data/am_tram2_name.xlsx
+++ b/data/am_tram2_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D3657-4613-428F-A84A-632C80BF363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003F3E1-22D9-4F74-AE59-5EBA3DC767EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2460" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36855" yWindow="4935" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,13 +81,13 @@
     <t>Nieuwezijds Kolk</t>
   </si>
   <si>
-    <t>Centraal Station</t>
-  </si>
-  <si>
     <t>Laan van Vlaanderen</t>
   </si>
   <si>
     <t>Cornelis Schuytstraat</t>
+  </si>
+  <si>
+    <t>Centraal Station_B</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
